--- a/relicDatas.xlsx
+++ b/relicDatas.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcfe91e62398368e/Documents/My Cheat Tables/Monster Train/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:40009_{F7984023-22CD-4CAD-B74B-2AB98361A94C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8A6D0BF-E41A-4EB2-A397-C58740E4B8D5}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:40009_{F7984023-22CD-4CAD-B74B-2AB98361A94C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F99A01C0-51FE-40E7-B6D8-A1A16FD144D6}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="12204" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relicDatas" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="MT_Relics" sheetId="4" r:id="rId3"/>
+    <sheet name="Bundles" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MT_Relics!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="607">
   <si>
     <t xml:space="preserve"> and Multistrike 2. Remove this artifact after 1 battle.</t>
   </si>
@@ -1845,6 +1871,15 @@
   </si>
   <si>
     <t>OP</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t>Upgrades</t>
+  </si>
+  <si>
+    <t>Bundle</t>
   </si>
 </sst>
 </file>
@@ -2334,12 +2369,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2697,7 +2733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2712,7 +2750,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <f>MATCH(B1,MT_Relics!$A:$A,0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -2727,7 +2765,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>MATCH(B2,MT_Relics!$A:$A,0)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>294</v>
@@ -2742,7 +2780,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>MATCH(B3,MT_Relics!$A:$A,0)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -2757,7 +2795,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>MATCH(B4,MT_Relics!$A:$A,0)</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>87</v>
@@ -2772,7 +2810,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>MATCH(B5,MT_Relics!$A:$A,0)</f>
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
@@ -2787,7 +2825,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>MATCH(B6,MT_Relics!$A:$A,0)</f>
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>362</v>
@@ -2802,7 +2840,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>MATCH(B7,MT_Relics!$A:$A,0)</f>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>360</v>
@@ -2817,7 +2855,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>MATCH(B8,MT_Relics!$A:$A,0)</f>
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -2832,7 +2870,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f>MATCH(B9,MT_Relics!$A:$A,0)</f>
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>304</v>
@@ -2847,7 +2885,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f>MATCH(B10,MT_Relics!$A:$A,0)</f>
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -2862,7 +2900,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f>MATCH(B11,MT_Relics!$A:$A,0)</f>
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>225</v>
@@ -2877,7 +2915,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f>MATCH(B12,MT_Relics!$A:$A,0)</f>
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>66</v>
@@ -2892,7 +2930,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>MATCH(B13,MT_Relics!$A:$A,0)</f>
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>325</v>
@@ -2907,7 +2945,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>MATCH(B14,MT_Relics!$A:$A,0)</f>
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>166</v>
@@ -2922,7 +2960,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f>MATCH(B15,MT_Relics!$A:$A,0)</f>
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>94</v>
@@ -2937,7 +2975,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>MATCH(B16,MT_Relics!$A:$A,0)</f>
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>207</v>
@@ -2952,7 +2990,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f>MATCH(B17,MT_Relics!$A:$A,0)</f>
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>59</v>
@@ -2967,7 +3005,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>MATCH(B18,MT_Relics!$A:$A,0)</f>
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>131</v>
@@ -2982,7 +3020,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f>MATCH(B19,MT_Relics!$A:$A,0)</f>
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>72</v>
@@ -2997,7 +3035,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f>MATCH(B20,MT_Relics!$A:$A,0)</f>
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>247</v>
@@ -3015,7 +3053,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f>MATCH(B21,MT_Relics!$A:$A,0)</f>
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>180</v>
@@ -3030,7 +3068,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>MATCH(B22,MT_Relics!$A:$A,0)</f>
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>51</v>
@@ -3045,7 +3083,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f>MATCH(B23,MT_Relics!$A:$A,0)</f>
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>78</v>
@@ -3060,7 +3098,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>MATCH(B24,MT_Relics!$A:$A,0)</f>
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
@@ -3075,7 +3113,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f>MATCH(B25,MT_Relics!$A:$A,0)</f>
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>209</v>
@@ -3090,7 +3128,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f>MATCH(B26,MT_Relics!$A:$A,0)</f>
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>139</v>
@@ -3105,7 +3143,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f>MATCH(B27,MT_Relics!$A:$A,0)</f>
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>279</v>
@@ -3120,7 +3158,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f>MATCH(B28,MT_Relics!$A:$A,0)</f>
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>357</v>
@@ -3135,7 +3173,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f>MATCH(B29,MT_Relics!$A:$A,0)</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>249</v>
@@ -3156,7 +3194,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f>MATCH(B30,MT_Relics!$A:$A,0)</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>301</v>
@@ -3171,7 +3209,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f>MATCH(B31,MT_Relics!$A:$A,0)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>122</v>
@@ -3186,7 +3224,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f>MATCH(B32,MT_Relics!$A:$A,0)</f>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>236</v>
@@ -3201,7 +3239,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f>MATCH(B33,MT_Relics!$A:$A,0)</f>
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>227</v>
@@ -3216,7 +3254,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f>MATCH(B34,MT_Relics!$A:$A,0)</f>
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>308</v>
@@ -3231,7 +3269,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f>MATCH(B35,MT_Relics!$A:$A,0)</f>
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>306</v>
@@ -3246,7 +3284,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f>MATCH(B36,MT_Relics!$A:$A,0)</f>
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>174</v>
@@ -3261,7 +3299,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f>MATCH(B37,MT_Relics!$A:$A,0)</f>
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>147</v>
@@ -3276,7 +3314,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f>MATCH(B38,MT_Relics!$A:$A,0)</f>
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>113</v>
@@ -3291,7 +3329,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f>MATCH(B39,MT_Relics!$A:$A,0)</f>
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>19</v>
@@ -3306,7 +3344,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f>MATCH(B40,MT_Relics!$A:$A,0)</f>
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -3321,7 +3359,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f>MATCH(B41,MT_Relics!$A:$A,0)</f>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
@@ -3336,7 +3374,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f>MATCH(B42,MT_Relics!$A:$A,0)</f>
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>271</v>
@@ -3351,7 +3389,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f>MATCH(B43,MT_Relics!$A:$A,0)</f>
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>275</v>
@@ -3366,7 +3404,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f>MATCH(B44,MT_Relics!$A:$A,0)</f>
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>278</v>
@@ -3381,7 +3419,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f>MATCH(B45,MT_Relics!$A:$A,0)</f>
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>128</v>
@@ -3396,7 +3434,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f>MATCH(B46,MT_Relics!$A:$A,0)</f>
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>240</v>
@@ -3411,7 +3449,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f>MATCH(B47,MT_Relics!$A:$A,0)</f>
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -3426,7 +3464,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f>MATCH(B48,MT_Relics!$A:$A,0)</f>
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>81</v>
@@ -3441,7 +3479,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f>MATCH(B49,MT_Relics!$A:$A,0)</f>
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>161</v>
@@ -3456,7 +3494,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f>MATCH(B50,MT_Relics!$A:$A,0)</f>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>328</v>
@@ -3471,7 +3509,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f>MATCH(B51,MT_Relics!$A:$A,0)</f>
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>188</v>
@@ -3486,7 +3524,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f>MATCH(B52,MT_Relics!$A:$A,0)</f>
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>244</v>
@@ -3501,7 +3539,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f>MATCH(B53,MT_Relics!$A:$A,0)</f>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -3516,7 +3554,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f>MATCH(B54,MT_Relics!$A:$A,0)</f>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>319</v>
@@ -3531,7 +3569,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f>MATCH(B55,MT_Relics!$A:$A,0)</f>
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>69</v>
@@ -3546,7 +3584,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f>MATCH(B56,MT_Relics!$A:$A,0)</f>
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>316</v>
@@ -3561,7 +3599,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f>MATCH(B57,MT_Relics!$A:$A,0)</f>
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>238</v>
@@ -3576,7 +3614,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f>MATCH(B58,MT_Relics!$A:$A,0)</f>
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>338</v>
@@ -3591,7 +3629,7 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f>MATCH(B59,MT_Relics!$A:$A,0)</f>
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>298</v>
@@ -3606,7 +3644,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f>MATCH(B60,MT_Relics!$A:$A,0)</f>
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>158</v>
@@ -3621,7 +3659,7 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f>MATCH(B61,MT_Relics!$A:$A,0)</f>
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>205</v>
@@ -3636,7 +3674,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f>MATCH(B62,MT_Relics!$A:$A,0)</f>
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>200</v>
@@ -3651,7 +3689,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f>MATCH(B63,MT_Relics!$A:$A,0)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>291</v>
@@ -3666,7 +3704,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f>MATCH(B64,MT_Relics!$A:$A,0)</f>
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>218</v>
@@ -3681,7 +3719,7 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f>MATCH(B65,MT_Relics!$A:$A,0)</f>
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>192</v>
@@ -3696,7 +3734,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f>MATCH(B66,MT_Relics!$A:$A,0)</f>
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>268</v>
@@ -3711,7 +3749,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f>MATCH(B67,MT_Relics!$A:$A,0)</f>
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>103</v>
@@ -3726,7 +3764,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f>MATCH(B68,MT_Relics!$A:$A,0)</f>
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>335</v>
@@ -3741,7 +3779,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f>MATCH(B69,MT_Relics!$A:$A,0)</f>
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>33</v>
@@ -3756,7 +3794,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f>MATCH(B70,MT_Relics!$A:$A,0)</f>
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>347</v>
@@ -3771,7 +3809,7 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f>MATCH(B71,MT_Relics!$A:$A,0)</f>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>133</v>
@@ -3786,7 +3824,7 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f>MATCH(B72,MT_Relics!$A:$A,0)</f>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>330</v>
@@ -3801,7 +3839,7 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f>MATCH(B73,MT_Relics!$A:$A,0)</f>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>32</v>
@@ -3816,7 +3854,7 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f>MATCH(B74,MT_Relics!$A:$A,0)</f>
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>169</v>
@@ -3831,7 +3869,7 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f>MATCH(B75,MT_Relics!$A:$A,0)</f>
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>64</v>
@@ -3846,7 +3884,7 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f>MATCH(B76,MT_Relics!$A:$A,0)</f>
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>38</v>
@@ -3861,7 +3899,7 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f>MATCH(B77,MT_Relics!$A:$A,0)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>142</v>
@@ -3876,7 +3914,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f>MATCH(B78,MT_Relics!$A:$A,0)</f>
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>56</v>
@@ -3891,7 +3929,7 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f>MATCH(B79,MT_Relics!$A:$A,0)</f>
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>263</v>
@@ -3906,7 +3944,7 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f>MATCH(B80,MT_Relics!$A:$A,0)</f>
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>211</v>
@@ -3921,7 +3959,7 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f>MATCH(B81,MT_Relics!$A:$A,0)</f>
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>333</v>
@@ -3936,7 +3974,7 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f>MATCH(B82,MT_Relics!$A:$A,0)</f>
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>339</v>
@@ -3951,7 +3989,7 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f>MATCH(B83,MT_Relics!$A:$A,0)</f>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>321</v>
@@ -3966,7 +4004,7 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f>MATCH(B84,MT_Relics!$A:$A,0)</f>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>222</v>
@@ -3981,7 +4019,7 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f>MATCH(B85,MT_Relics!$A:$A,0)</f>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>5</v>
@@ -3996,7 +4034,7 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f>MATCH(B86,MT_Relics!$A:$A,0)</f>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>343</v>
@@ -4011,7 +4049,7 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f>MATCH(B87,MT_Relics!$A:$A,0)</f>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>311</v>
@@ -4026,7 +4064,7 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f>MATCH(B88,MT_Relics!$A:$A,0)</f>
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>24</v>
@@ -4041,7 +4079,7 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f>MATCH(B89,MT_Relics!$A:$A,0)</f>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>117</v>
@@ -4056,7 +4094,7 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f>MATCH(B90,MT_Relics!$A:$A,0)</f>
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>190</v>
@@ -4071,7 +4109,7 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f>MATCH(B91,MT_Relics!$A:$A,0)</f>
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>97</v>
@@ -4086,7 +4124,7 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f>MATCH(B92,MT_Relics!$A:$A,0)</f>
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>186</v>
@@ -4101,7 +4139,7 @@
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f>MATCH(B93,MT_Relics!$A:$A,0)</f>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>99</v>
@@ -4116,7 +4154,7 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f>MATCH(B94,MT_Relics!$A:$A,0)</f>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>185</v>
@@ -4131,7 +4169,7 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f>MATCH(B95,MT_Relics!$A:$A,0)</f>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>229</v>
@@ -4146,7 +4184,7 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f>MATCH(B96,MT_Relics!$A:$A,0)</f>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>359</v>
@@ -4161,7 +4199,7 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f>MATCH(B97,MT_Relics!$A:$A,0)</f>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>194</v>
@@ -4176,7 +4214,7 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f>MATCH(B98,MT_Relics!$A:$A,0)</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>79</v>
@@ -4191,7 +4229,7 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f>MATCH(B99,MT_Relics!$A:$A,0)</f>
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -4206,7 +4244,7 @@
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f>MATCH(B100,MT_Relics!$A:$A,0)</f>
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>12</v>
@@ -4221,7 +4259,7 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f>MATCH(B101,MT_Relics!$A:$A,0)</f>
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>15</v>
@@ -4236,7 +4274,7 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f>MATCH(B102,MT_Relics!$A:$A,0)</f>
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>17</v>
@@ -4251,7 +4289,7 @@
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f>MATCH(B103,MT_Relics!$A:$A,0)</f>
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>20</v>
@@ -4266,7 +4304,7 @@
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f>MATCH(B104,MT_Relics!$A:$A,0)</f>
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>29</v>
@@ -4281,7 +4319,7 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f>MATCH(B105,MT_Relics!$A:$A,0)</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>49</v>
@@ -4296,7 +4334,7 @@
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f>MATCH(B106,MT_Relics!$A:$A,0)</f>
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>54</v>
@@ -4311,7 +4349,7 @@
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f>MATCH(B107,MT_Relics!$A:$A,0)</f>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>62</v>
@@ -4326,7 +4364,7 @@
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f>MATCH(B108,MT_Relics!$A:$A,0)</f>
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>74</v>
@@ -4341,7 +4379,7 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f>MATCH(B109,MT_Relics!$A:$A,0)</f>
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>76</v>
@@ -4356,7 +4394,7 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f>MATCH(B110,MT_Relics!$A:$A,0)</f>
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>84</v>
@@ -4371,7 +4409,7 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f>MATCH(B111,MT_Relics!$A:$A,0)</f>
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>90</v>
@@ -4386,7 +4424,7 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f>MATCH(B112,MT_Relics!$A:$A,0)</f>
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>92</v>
@@ -4401,7 +4439,7 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f>MATCH(B113,MT_Relics!$A:$A,0)</f>
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>100</v>
@@ -4416,7 +4454,7 @@
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f>MATCH(B114,MT_Relics!$A:$A,0)</f>
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>106</v>
@@ -4431,7 +4469,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f>MATCH(B115,MT_Relics!$A:$A,0)</f>
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>108</v>
@@ -4446,7 +4484,7 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f>MATCH(B116,MT_Relics!$A:$A,0)</f>
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>111</v>
@@ -4461,7 +4499,7 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f>MATCH(B117,MT_Relics!$A:$A,0)</f>
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>115</v>
@@ -4476,7 +4514,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f>MATCH(B118,MT_Relics!$A:$A,0)</f>
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>124</v>
@@ -4491,7 +4529,7 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f>MATCH(B119,MT_Relics!$A:$A,0)</f>
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>126</v>
@@ -4506,7 +4544,7 @@
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f>MATCH(B120,MT_Relics!$A:$A,0)</f>
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>135</v>
@@ -4521,7 +4559,7 @@
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f>MATCH(B121,MT_Relics!$A:$A,0)</f>
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>137</v>
@@ -4536,7 +4574,7 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f>MATCH(B122,MT_Relics!$A:$A,0)</f>
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>144</v>
@@ -4551,7 +4589,7 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f>MATCH(B123,MT_Relics!$A:$A,0)</f>
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>150</v>
@@ -4566,7 +4604,7 @@
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f>MATCH(B124,MT_Relics!$A:$A,0)</f>
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>153</v>
@@ -4581,7 +4619,7 @@
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f>MATCH(B125,MT_Relics!$A:$A,0)</f>
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>156</v>
@@ -4596,7 +4634,7 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f>MATCH(B126,MT_Relics!$A:$A,0)</f>
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>163</v>
@@ -4611,7 +4649,7 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f>MATCH(B127,MT_Relics!$A:$A,0)</f>
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>171</v>
@@ -4626,7 +4664,7 @@
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f>MATCH(B128,MT_Relics!$A:$A,0)</f>
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>177</v>
@@ -4641,7 +4679,7 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f>MATCH(B129,MT_Relics!$A:$A,0)</f>
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>183</v>
@@ -4656,7 +4694,7 @@
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f>MATCH(B130,MT_Relics!$A:$A,0)</f>
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>195</v>
@@ -4671,7 +4709,7 @@
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f>MATCH(B131,MT_Relics!$A:$A,0)</f>
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>198</v>
@@ -4686,7 +4724,7 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f>MATCH(B132,MT_Relics!$A:$A,0)</f>
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>202</v>
@@ -4701,7 +4739,7 @@
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f>MATCH(B133,MT_Relics!$A:$A,0)</f>
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>213</v>
@@ -4716,7 +4754,7 @@
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f>MATCH(B134,MT_Relics!$A:$A,0)</f>
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>216</v>
@@ -4731,7 +4769,7 @@
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f>MATCH(B135,MT_Relics!$A:$A,0)</f>
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>220</v>
@@ -4746,7 +4784,7 @@
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f>MATCH(B136,MT_Relics!$A:$A,0)</f>
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>230</v>
@@ -4761,7 +4799,7 @@
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f>MATCH(B137,MT_Relics!$A:$A,0)</f>
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>233</v>
@@ -4776,7 +4814,7 @@
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f>MATCH(B138,MT_Relics!$A:$A,0)</f>
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>242</v>
@@ -4791,7 +4829,7 @@
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f>MATCH(B139,MT_Relics!$A:$A,0)</f>
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>252</v>
@@ -4806,7 +4844,7 @@
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f>MATCH(B140,MT_Relics!$A:$A,0)</f>
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>255</v>
@@ -4821,7 +4859,7 @@
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f>MATCH(B141,MT_Relics!$A:$A,0)</f>
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>257</v>
@@ -4836,7 +4874,7 @@
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f>MATCH(B142,MT_Relics!$A:$A,0)</f>
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>259</v>
@@ -4851,7 +4889,7 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f>MATCH(B143,MT_Relics!$A:$A,0)</f>
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>261</v>
@@ -4866,7 +4904,7 @@
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f>MATCH(B144,MT_Relics!$A:$A,0)</f>
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>266</v>
@@ -4881,7 +4919,7 @@
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f>MATCH(B145,MT_Relics!$A:$A,0)</f>
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>273</v>
@@ -4896,7 +4934,7 @@
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f>MATCH(B146,MT_Relics!$A:$A,0)</f>
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>281</v>
@@ -4911,7 +4949,7 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f>MATCH(B147,MT_Relics!$A:$A,0)</f>
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>284</v>
@@ -4926,7 +4964,7 @@
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f>MATCH(B148,MT_Relics!$A:$A,0)</f>
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>286</v>
@@ -4941,7 +4979,7 @@
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f>MATCH(B149,MT_Relics!$A:$A,0)</f>
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>289</v>
@@ -4956,7 +4994,7 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f>MATCH(B150,MT_Relics!$A:$A,0)</f>
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>296</v>
@@ -4971,7 +5009,7 @@
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f>MATCH(B151,MT_Relics!$A:$A,0)</f>
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>313</v>
@@ -4986,7 +5024,7 @@
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f>MATCH(B152,MT_Relics!$A:$A,0)</f>
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>323</v>
@@ -5001,7 +5039,7 @@
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f>MATCH(B153,MT_Relics!$A:$A,0)</f>
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>341</v>
@@ -5016,7 +5054,7 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f>MATCH(B154,MT_Relics!$A:$A,0)</f>
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>344</v>
@@ -5031,7 +5069,7 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f>MATCH(B155,MT_Relics!$A:$A,0)</f>
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>350</v>
@@ -5046,7 +5084,7 @@
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f>MATCH(B156,MT_Relics!$A:$A,0)</f>
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>352</v>
@@ -5061,7 +5099,7 @@
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f>MATCH(B157,MT_Relics!$A:$A,0)</f>
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>355</v>
@@ -5132,8 +5170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0AD5D2-EEF4-4D90-BFF9-4E5B05D6F1BF}">
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5144,225 +5182,231 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>385</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>294</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>295</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>386</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D11" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>394</v>
-      </c>
-      <c r="D11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>487</v>
       </c>
       <c r="D12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="D14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>448</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>399</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
         <v>592</v>
@@ -5370,153 +5414,153 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D17" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>561</v>
       </c>
       <c r="D18" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>131</v>
+      <c r="A19" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D19" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="D21" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="D22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>506</v>
       </c>
       <c r="D24" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D25" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>410</v>
+        <v>519</v>
       </c>
       <c r="D26" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>411</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>596</v>
@@ -5524,13 +5568,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D28" t="s">
         <v>588</v>
@@ -5538,41 +5582,41 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="D29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>373</v>
       </c>
       <c r="C30" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
         <v>592</v>
@@ -5580,447 +5624,447 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>350</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>351</v>
       </c>
       <c r="C32" t="s">
-        <v>416</v>
+        <v>581</v>
       </c>
       <c r="D32" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="D33" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="D35" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>420</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="C37" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="D37" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="D38" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
       <c r="C40" t="s">
-        <v>425</v>
+        <v>578</v>
       </c>
       <c r="D40" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="D41" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s">
-        <v>427</v>
+        <v>232</v>
       </c>
       <c r="D42" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>428</v>
+        <v>517</v>
       </c>
       <c r="D43" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>565</v>
       </c>
       <c r="D44" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>429</v>
+        <v>529</v>
       </c>
       <c r="D45" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>430</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s">
-        <v>431</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>432</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>433</v>
+        <v>283</v>
       </c>
       <c r="D49" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="C50" t="s">
-        <v>434</v>
+        <v>315</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>435</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>494</v>
       </c>
       <c r="C52" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="D52" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="D53" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>438</v>
+        <v>523</v>
       </c>
       <c r="D54" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="D55" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>69</v>
+      <c r="A56" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>440</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>317</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D57" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B58" t="s">
-        <v>442</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="D58" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D59" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>445</v>
+        <v>559</v>
       </c>
       <c r="D60" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="C62" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="D62" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>448</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>370</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>467</v>
       </c>
       <c r="D63" t="s">
         <v>592</v>
@@ -6028,828 +6072,876 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>449</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" t="s">
+        <v>482</v>
+      </c>
+      <c r="D65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" t="s">
+        <v>482</v>
+      </c>
+      <c r="D66" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" t="s">
+        <v>461</v>
+      </c>
+      <c r="D67" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D68" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>291</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" t="s">
         <v>292</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C69" t="s">
         <v>450</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D69" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" t="s">
-        <v>451</v>
-      </c>
-      <c r="D66" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" t="s">
-        <v>452</v>
-      </c>
-      <c r="D67" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" t="s">
-        <v>269</v>
-      </c>
-      <c r="C68" t="s">
-        <v>453</v>
-      </c>
-      <c r="D68" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" t="s">
+        <v>438</v>
+      </c>
+      <c r="D70" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>454</v>
-      </c>
-      <c r="B69" t="s">
-        <v>290</v>
-      </c>
-      <c r="C69" t="s">
-        <v>455</v>
-      </c>
-      <c r="D69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" t="s">
-        <v>456</v>
-      </c>
-      <c r="D70" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>457</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D72" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="C73" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="D73" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="C74" t="s">
-        <v>460</v>
+        <v>556</v>
       </c>
       <c r="D74" t="s">
+        <v>586</v>
+      </c>
+      <c r="E74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>417</v>
+      </c>
+      <c r="D75" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>362</v>
+      </c>
+      <c r="B76" t="s">
+        <v>363</v>
+      </c>
+      <c r="C76" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>360</v>
+      </c>
+      <c r="B77" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>391</v>
+      </c>
+      <c r="D77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" t="s">
+        <v>547</v>
+      </c>
+      <c r="D78" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" t="s">
+        <v>392</v>
+      </c>
+      <c r="D80" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>330</v>
-      </c>
-      <c r="B75" t="s">
-        <v>331</v>
-      </c>
-      <c r="C75" t="s">
-        <v>332</v>
-      </c>
-      <c r="D75" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" t="s">
+        <v>481</v>
+      </c>
+      <c r="D81" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>359</v>
+      </c>
+      <c r="B82" t="s">
+        <v>368</v>
+      </c>
+      <c r="C82" t="s">
+        <v>481</v>
+      </c>
+      <c r="D82" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>311</v>
+      </c>
+      <c r="B83" t="s">
+        <v>312</v>
+      </c>
+      <c r="C83" t="s">
+        <v>474</v>
+      </c>
+      <c r="D83" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>475</v>
+      </c>
+      <c r="D84" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" t="s">
+        <v>439</v>
+      </c>
+      <c r="D85" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" t="s">
+        <v>592</v>
+      </c>
+      <c r="E86" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" t="s">
+        <v>418</v>
+      </c>
+      <c r="D87" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" t="s">
+        <v>305</v>
+      </c>
+      <c r="C88" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>394</v>
+      </c>
+      <c r="D89" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" t="s">
-        <v>366</v>
-      </c>
-      <c r="C76" t="s">
-        <v>461</v>
-      </c>
-      <c r="D76" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
+        <v>395</v>
+      </c>
+      <c r="D90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>396</v>
+      </c>
+      <c r="D91" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" t="s">
+        <v>346</v>
+      </c>
+      <c r="D92" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" t="s">
+        <v>522</v>
+      </c>
+      <c r="D93" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" t="s">
+        <v>483</v>
+      </c>
+      <c r="D94" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>483</v>
+      </c>
+      <c r="D95" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>325</v>
+      </c>
+      <c r="B96" t="s">
+        <v>326</v>
+      </c>
+      <c r="C96" t="s">
+        <v>397</v>
+      </c>
+      <c r="D96" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
+        <v>398</v>
+      </c>
+      <c r="D97" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>501</v>
+      </c>
+      <c r="D98" t="s">
+        <v>595</v>
+      </c>
+      <c r="E98" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>511</v>
+      </c>
+      <c r="D99" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="s">
+        <v>545</v>
+      </c>
+      <c r="D100" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>451</v>
+      </c>
+      <c r="D101" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>169</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B102" t="s">
         <v>170</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C102" t="s">
         <v>462</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D102" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>64</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B103" t="s">
         <v>65</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C103" t="s">
         <v>463</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D103" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" t="s">
+        <v>516</v>
+      </c>
+      <c r="D104" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" t="s">
+        <v>452</v>
+      </c>
+      <c r="D105" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>38</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B106" t="s">
         <v>39</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C106" t="s">
         <v>40</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D106" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" t="s">
-        <v>464</v>
-      </c>
-      <c r="D80" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" t="s">
+        <v>557</v>
+      </c>
+      <c r="D107" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>476</v>
+      </c>
+      <c r="D108" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" t="s">
-        <v>465</v>
-      </c>
-      <c r="D81" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>275</v>
+      </c>
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>263</v>
-      </c>
-      <c r="B82" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" t="s">
-        <v>466</v>
-      </c>
-      <c r="D82" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B83" t="s">
-        <v>370</v>
-      </c>
-      <c r="C83" t="s">
-        <v>467</v>
-      </c>
-      <c r="D83" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>333</v>
-      </c>
-      <c r="B84" t="s">
-        <v>334</v>
-      </c>
-      <c r="C84" t="s">
-        <v>468</v>
-      </c>
-      <c r="D84" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>339</v>
-      </c>
-      <c r="B85" t="s">
-        <v>340</v>
-      </c>
-      <c r="C85" t="s">
-        <v>469</v>
-      </c>
-      <c r="D85" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>321</v>
-      </c>
-      <c r="B86" t="s">
-        <v>373</v>
-      </c>
-      <c r="C86" t="s">
-        <v>470</v>
-      </c>
-      <c r="D86" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>222</v>
-      </c>
-      <c r="B87" t="s">
-        <v>223</v>
-      </c>
-      <c r="C87" t="s">
-        <v>471</v>
-      </c>
-      <c r="D87" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" t="s">
-        <v>472</v>
-      </c>
-      <c r="D88" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>343</v>
-      </c>
-      <c r="B89" t="s">
-        <v>375</v>
-      </c>
-      <c r="C89" t="s">
-        <v>473</v>
-      </c>
-      <c r="D89" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>311</v>
-      </c>
-      <c r="B90" t="s">
-        <v>312</v>
-      </c>
-      <c r="C90" t="s">
-        <v>474</v>
-      </c>
-      <c r="D90" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>24</v>
-      </c>
-      <c r="B91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" t="s">
-        <v>475</v>
-      </c>
-      <c r="D91" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" t="s">
-        <v>476</v>
-      </c>
-      <c r="D92" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>190</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B110" t="s">
         <v>191</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C110" t="s">
         <v>477</v>
-      </c>
-      <c r="D93" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" t="s">
-        <v>478</v>
-      </c>
-      <c r="D94" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>479</v>
-      </c>
-      <c r="C95" t="s">
-        <v>480</v>
-      </c>
-      <c r="D95" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>185</v>
-      </c>
-      <c r="B97" t="s">
-        <v>369</v>
-      </c>
-      <c r="C97" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>229</v>
-      </c>
-      <c r="B98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>359</v>
-      </c>
-      <c r="B99" t="s">
-        <v>368</v>
-      </c>
-      <c r="C99" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100" t="s">
-        <v>369</v>
-      </c>
-      <c r="C100" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B101" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>487</v>
-      </c>
-      <c r="D102" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" t="s">
-        <v>491</v>
-      </c>
-      <c r="D105" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" t="s">
-        <v>494</v>
-      </c>
-      <c r="C106" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" t="s">
-        <v>30</v>
-      </c>
-      <c r="C107" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" t="s">
-        <v>50</v>
-      </c>
-      <c r="C108" t="s">
-        <v>501</v>
-      </c>
-      <c r="D108" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" t="s">
-        <v>502</v>
-      </c>
-      <c r="D109" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" t="s">
-        <v>503</v>
       </c>
       <c r="D110" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>506</v>
+        <v>400</v>
       </c>
       <c r="D111" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="C112" t="s">
-        <v>507</v>
+        <v>429</v>
+      </c>
+      <c r="D112" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s">
-        <v>86</v>
+        <v>399</v>
+      </c>
+      <c r="D113" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>511</v>
+        <v>401</v>
       </c>
       <c r="D114" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B115" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C115" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="D115" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>419</v>
       </c>
       <c r="D116" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="D117" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="C118" t="s">
-        <v>110</v>
+        <v>453</v>
+      </c>
+      <c r="D118" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>517</v>
+        <v>402</v>
       </c>
       <c r="D119" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="D120" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
       <c r="D121" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>523</v>
+        <v>430</v>
+      </c>
+      <c r="D122" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C123" t="s">
-        <v>526</v>
+        <v>440</v>
       </c>
       <c r="D123" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>527</v>
+        <v>431</v>
       </c>
       <c r="D124" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>421</v>
       </c>
       <c r="D125" t="s">
         <v>592</v>
@@ -6857,456 +6949,739 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C126" t="s">
-        <v>152</v>
+        <v>422</v>
+      </c>
+      <c r="D126" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>355</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>582</v>
+      </c>
+      <c r="D127" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
       <c r="B128" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="C128" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="D128" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="C129" t="s">
-        <v>165</v>
+        <v>455</v>
       </c>
       <c r="D129" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" t="s">
+        <v>458</v>
+      </c>
+      <c r="D130" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" t="s">
+        <v>288</v>
+      </c>
+      <c r="D131" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>316</v>
+      </c>
+      <c r="B132" t="s">
+        <v>317</v>
+      </c>
+      <c r="C132" t="s">
+        <v>441</v>
+      </c>
+      <c r="D132" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>255</v>
+      </c>
+      <c r="B133" t="s">
+        <v>256</v>
+      </c>
+      <c r="C133" t="s">
+        <v>555</v>
+      </c>
+      <c r="D133" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" t="s">
+        <v>73</v>
+      </c>
+      <c r="C134" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>247</v>
+      </c>
+      <c r="B135" t="s">
+        <v>248</v>
+      </c>
+      <c r="C135" t="s">
+        <v>404</v>
+      </c>
+      <c r="D135" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>104</v>
+      </c>
+      <c r="C136" t="s">
+        <v>456</v>
+      </c>
+      <c r="D136" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" t="s">
+        <v>405</v>
+      </c>
+      <c r="D137" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" t="s">
+        <v>442</v>
+      </c>
+      <c r="C138" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>47</v>
+      </c>
+      <c r="C139" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>171</v>
-      </c>
-      <c r="B130" t="s">
-        <v>172</v>
-      </c>
-      <c r="C130" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>177</v>
-      </c>
-      <c r="B131" t="s">
-        <v>178</v>
-      </c>
-      <c r="C131" t="s">
-        <v>179</v>
-      </c>
-      <c r="D131" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>183</v>
-      </c>
-      <c r="B132" t="s">
-        <v>184</v>
-      </c>
-      <c r="C132" t="s">
-        <v>532</v>
-      </c>
-      <c r="D132" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" t="s">
+        <v>406</v>
+      </c>
+      <c r="D140" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>424</v>
+      </c>
+      <c r="C141" t="s">
+        <v>425</v>
+      </c>
+      <c r="D141" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>195</v>
-      </c>
-      <c r="B133" t="s">
-        <v>196</v>
-      </c>
-      <c r="C133" t="s">
-        <v>197</v>
-      </c>
-      <c r="D133" t="s">
-        <v>592</v>
-      </c>
-      <c r="E133" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>198</v>
-      </c>
-      <c r="B134" t="s">
-        <v>199</v>
-      </c>
-      <c r="C134" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>202</v>
-      </c>
-      <c r="B135" t="s">
-        <v>203</v>
-      </c>
-      <c r="C135" t="s">
-        <v>204</v>
-      </c>
-      <c r="D135" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>213</v>
-      </c>
-      <c r="B136" t="s">
-        <v>214</v>
-      </c>
-      <c r="C136" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>216</v>
-      </c>
-      <c r="B137" t="s">
-        <v>217</v>
-      </c>
-      <c r="C137" t="s">
-        <v>545</v>
-      </c>
-      <c r="D137" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>220</v>
-      </c>
-      <c r="B138" t="s">
-        <v>221</v>
-      </c>
-      <c r="C138" t="s">
-        <v>547</v>
-      </c>
-      <c r="D138" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>230</v>
-      </c>
-      <c r="B139" t="s">
-        <v>231</v>
-      </c>
-      <c r="C139" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B140" t="s">
-        <v>234</v>
-      </c>
-      <c r="C140" t="s">
-        <v>235</v>
-      </c>
-      <c r="D140" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>242</v>
-      </c>
-      <c r="B141" t="s">
-        <v>243</v>
-      </c>
-      <c r="C141" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="C142" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="D142" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>555</v>
+        <v>433</v>
       </c>
       <c r="D143" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
-        <v>556</v>
+        <v>434</v>
       </c>
       <c r="D144" t="s">
-        <v>586</v>
-      </c>
-      <c r="E144" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="C145" t="s">
-        <v>557</v>
+        <v>444</v>
       </c>
       <c r="D145" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="C146" t="s">
-        <v>558</v>
+        <v>445</v>
       </c>
       <c r="D146" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>559</v>
+        <v>446</v>
       </c>
       <c r="D147" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="B148" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="C148" t="s">
-        <v>561</v>
+        <v>407</v>
       </c>
       <c r="D148" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>283</v>
+        <v>408</v>
+      </c>
+      <c r="D149" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>565</v>
+        <v>491</v>
+      </c>
+      <c r="D150" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="C151" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="D151" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="C152" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D152" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="C153" t="s">
-        <v>567</v>
+        <v>466</v>
       </c>
       <c r="D153" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>313</v>
+      <c r="A154" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>479</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>480</v>
+      </c>
+      <c r="D154" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="B155" t="s">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="C155" t="s">
-        <v>573</v>
+        <v>411</v>
+      </c>
+      <c r="D155" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="C156" t="s">
-        <v>578</v>
+        <v>412</v>
+      </c>
+      <c r="D156" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B157" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="D157" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B158" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C158" t="s">
-        <v>581</v>
+        <v>457</v>
+      </c>
+      <c r="D158" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>352</v>
+        <v>92</v>
       </c>
       <c r="B159" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="C159" t="s">
-        <v>354</v>
+        <v>512</v>
+      </c>
+      <c r="D159" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>355</v>
+        <v>202</v>
       </c>
       <c r="B160" t="s">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="C160" t="s">
-        <v>582</v>
+        <v>204</v>
       </c>
       <c r="D160" t="s">
         <v>601</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{A2477F3E-874C-4E60-9623-EA0AD95AC0E4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E160">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF6D486-54E0-41AB-88F4-E8263F466560}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A3,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Improved Firebox</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A3,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Gain 7 Ember on the first turn of battle.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A4,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Infused Mallet</v>
+      </c>
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A4,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>25% chance to deal 5 damage when an enemy unit enters your train.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A5,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Wing Clippings</v>
+      </c>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A5,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Spell cards with Consume have a 50% chance to be discarded instead.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A6,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Winged Steel</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A6,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>When you play your third card of the turn, draw 1.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A7,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Collection of Tails</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A7,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Rage does not decay on friendly units.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A8,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Railhammer</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A8,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Grant +4 stacks of Armor each time it is applied to friendly units.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A9,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Scorched Steel</v>
+      </c>
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A9,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Friendly units enter with Armor 5.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A10,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Scorching Restraints</v>
+      </c>
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A10,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Friendly units enter with Rage 3.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="str" cm="1">
+        <f t="array" ref="B11">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A11,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Mine Jacks</v>
+      </c>
+      <c r="C11" t="str" cm="1">
+        <f t="array" ref="C11">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A11,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>+2 Capacity on the middle floor.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A12,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Votive Key</v>
+      </c>
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A12,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Apply Endless to the first friendly unit summoned each turn.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A13,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>History of the World</v>
+      </c>
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A13,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>+3 Capacity on a random floor.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A14,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Railforger's Hammer</v>
+      </c>
+      <c r="C14" t="str" cm="1">
+        <f t="array" ref="C14">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A14,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>+1 Capacity on each floor.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A15,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Blank Pages</v>
+      </c>
+      <c r="C15" t="str" cm="1">
+        <f t="array" ref="C15">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A15,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>At start of turn, if you do not have a Champion in your hand, add a random one to your hand.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A16,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Golden Vault</v>
+      </c>
+      <c r="C16" t="str" cm="1">
+        <f t="array" ref="C16">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A16,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>As long as you have at least 25 Gold, lose 25 Gold when you take Pyre damage in combat instead of taking damage.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="str" cm="1">
+        <f t="array" ref="B17">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A17,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Lost Luggage</v>
+      </c>
+      <c r="C17" t="str" cm="1">
+        <f t="array" ref="C17">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A17,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>At the start of battle, draw until you have 10 cards.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="str" cm="1">
+        <f t="array" ref="B18">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A18,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>The Unbroken Horn</v>
+      </c>
+      <c r="C18" t="str" cm="1">
+        <f t="array" ref="C18">INDEX(relicDatas!$B:$D,MATCH(Bundles!$A18,relicDatas!$B:$B,0),COLUMN())</f>
+        <v>Conserve  Ember between turns.</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>